--- a/data/trans_camb/P15-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P15-Edad-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>-0.2222557491145166</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-2.237781408696015</v>
+        <v>-2.237781408696017</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.767064679036044</v>
+        <v>-1.673968693028398</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.444994965447588</v>
+        <v>-4.16430259745695</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-9.684593960541033</v>
+        <v>-9.658493745516353</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.3217565553403857</v>
+        <v>-0.4743094573316527</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.881188382114273</v>
+        <v>-3.043201557919219</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-2.14242644791525</v>
+        <v>-2.161981801874432</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.1799362466486245</v>
+        <v>0.05047181765773866</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.638713089929186</v>
+        <v>-2.773361196640354</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-5.319127344695955</v>
+        <v>-5.279920635425863</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.886499916122604</v>
+        <v>6.616074214211093</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.91916006983671</v>
+        <v>4.242851235848343</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.2789977684171953</v>
+        <v>-0.3135937615894095</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.829587746048105</v>
+        <v>5.656054702929363</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.61753395741445</v>
+        <v>2.470147451302618</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>6.503965487683326</v>
+        <v>6.023409049963877</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>5.088974163982886</v>
+        <v>5.222064594437783</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.198334425741697</v>
+        <v>2.2400064457094</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.103522307506726</v>
+        <v>0.7902675300075027</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>-0.02828583676576507</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.2847958709550655</v>
+        <v>-0.2847958709550658</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1364664270998223</v>
+        <v>-0.1401037097139924</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3427213658117201</v>
+        <v>-0.3297165687077814</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.7907381426773942</v>
+        <v>-0.7947170716680574</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.06473753924622699</v>
+        <v>-0.07751826605450021</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4799161442564545</v>
+        <v>-0.4941702295075039</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3926553418032739</v>
+        <v>-0.4224144926661338</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.02858917336753486</v>
+        <v>0.001630519177665213</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3025036243193994</v>
+        <v>-0.3067263671216246</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.5997491607441493</v>
+        <v>-0.6088446098207477</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.8018242027447572</v>
+        <v>0.7866721493859489</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.4291578124828036</v>
+        <v>0.4854693128461963</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.01953201969739677</v>
+        <v>0.049156001446096</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.568754417082241</v>
+        <v>1.616952363183199</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.7825389667187191</v>
+        <v>0.7048051795167788</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.81913357981445</v>
+        <v>1.608304370020119</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7559034512717295</v>
+        <v>0.7862287202634437</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3405714744306266</v>
+        <v>0.317345363787168</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.1990637167950543</v>
+        <v>0.1412894893569123</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>-0.959748670671895</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-2.369190540795168</v>
+        <v>-2.369190540795169</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2754682949894454</v>
+        <v>-0.1151579107452674</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.173664283372181</v>
+        <v>-3.224629211349613</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.177141321072424</v>
+        <v>-5.436516938865719</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.105566783182358</v>
+        <v>-2.141426037805872</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-4.289528847465517</v>
+        <v>-4.159315384064805</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-5.077956771060326</v>
+        <v>-5.023360006934523</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.01774884490843589</v>
+        <v>-0.3180449988503782</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.932684425618231</v>
+        <v>-3.115874504055091</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-4.468416656209522</v>
+        <v>-4.531396400657045</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.83949228379482</v>
+        <v>6.441381152465456</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.964710243811756</v>
+        <v>2.983027139014206</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.848924833977809</v>
+        <v>2.738769994370947</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.658201911156354</v>
+        <v>3.677272191490238</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7848437669518437</v>
+        <v>0.9112400697014378</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-0.1528618401848108</v>
+        <v>-0.2760612890865944</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>4.320129722405797</v>
+        <v>4.208104440997769</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.19552654116629</v>
+        <v>1.108901263367544</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04157291852442321</v>
+        <v>0.1335135676629343</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>-0.2863000659757728</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.4571944798866398</v>
+        <v>-0.4571944798866397</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.276237584756831</v>
@@ -983,7 +983,7 @@
         <v>-0.1309026577664062</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.3231401595253063</v>
+        <v>-0.3231401595253064</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.01685436255847344</v>
+        <v>-0.004893358356030829</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3181743380665709</v>
+        <v>-0.3179908341053882</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.5204323209856357</v>
+        <v>-0.5682945985595096</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3086738846336162</v>
+        <v>-0.3024201192760452</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5906147150475747</v>
+        <v>-0.5900927440228806</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.7057973258500603</v>
+        <v>-0.7232264215074795</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.009028602698202192</v>
+        <v>-0.03652792244188518</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3569174360207525</v>
+        <v>-0.3692119845209598</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.5554176488960539</v>
+        <v>-0.5521507263254797</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.9423196904153601</v>
+        <v>0.9207566003917831</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.4103744466058604</v>
+        <v>0.4128724348833449</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.4058480894038993</v>
+        <v>0.3573252911231926</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.8411907560908749</v>
+        <v>0.8554227482178773</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2077507310857419</v>
+        <v>0.2297256945986871</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.009387305614802808</v>
+        <v>-0.01779087691311312</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6698875478929945</v>
+        <v>0.6746681886323914</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1882058210181666</v>
+        <v>0.1787117540614218</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.03253456148206006</v>
+        <v>0.02556829119419821</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>-0.3940289108066611</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.5807267565047569</v>
+        <v>0.5807267565047562</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.298791908074187</v>
+        <v>-1.880751890406706</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.797066585444517</v>
+        <v>-4.625149516202489</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.948081894375279</v>
+        <v>-4.125466271242901</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.6910787798905751</v>
+        <v>-0.7130518917558952</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.091587740579662</v>
+        <v>-1.143243962295104</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.03961943094282291</v>
+        <v>0.2088648337208779</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.6650390918655842</v>
+        <v>-0.576508409447916</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.922048881614372</v>
+        <v>-2.074247894400047</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.287130008873419</v>
+        <v>-1.001616523168879</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.964703781796074</v>
+        <v>4.3156646165421</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6958239937776933</v>
+        <v>0.7545305375335255</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.734122227654429</v>
+        <v>1.829727671198421</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.086234592693153</v>
+        <v>3.113220920188955</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.009046201535341</v>
+        <v>2.895818214684477</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.875136838491774</v>
+        <v>3.992301490558202</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.00929111344733</v>
+        <v>3.072121530482223</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.275091701913644</v>
+        <v>1.330659240162915</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.340092267428003</v>
+        <v>2.394017688289045</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.2959496475545731</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6757774470640694</v>
+        <v>0.6757774470640696</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.2413451812813424</v>
@@ -1197,7 +1197,7 @@
         <v>-0.07925318652581012</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.1168047437422254</v>
+        <v>0.1168047437422252</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2718140800859351</v>
+        <v>-0.224062095211596</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.5573727804187573</v>
+        <v>-0.5327952769589978</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4534155609205823</v>
+        <v>-0.4871763661726895</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1947365487979842</v>
+        <v>-0.2083411646440319</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.315676676480129</v>
+        <v>-0.3271640963083599</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.008695314741636024</v>
+        <v>0.04181415669595089</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1179226077067999</v>
+        <v>-0.09731316324345878</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3380695854949806</v>
+        <v>-0.3513416828115979</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.2088190853700279</v>
+        <v>-0.1835400887295298</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.6588002074876435</v>
+        <v>0.7928607384171213</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1187042245266839</v>
+        <v>0.1550840414496727</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.3167963270722247</v>
+        <v>0.3234626948269992</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.46694980841863</v>
+        <v>1.595133431959016</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.40781431967396</v>
+        <v>1.423419309121476</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.961602996155523</v>
+        <v>2.026584571699532</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7255625681589066</v>
+        <v>0.7337280548435832</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.3118626791397545</v>
+        <v>0.3313855112639101</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.5725789506971389</v>
+        <v>0.5838432609588637</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>-1.780502676627869</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.2628237630098951</v>
+        <v>0.2628237630098965</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-5.422260628152347</v>
+        <v>-4.725049826475036</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-6.812278312648195</v>
+        <v>-6.518367696661874</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.353974955236561</v>
+        <v>-3.216697286986018</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.8057547687866531</v>
+        <v>-0.6499920988033346</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.530592450422048</v>
+        <v>-2.457389460453807</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.983654115960592</v>
+        <v>-1.62519895688367</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.131759135720423</v>
+        <v>-1.99417134618999</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-3.574231795091753</v>
+        <v>-3.952105169625713</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.715150767447176</v>
+        <v>-1.963594150895642</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.8796625566651178</v>
+        <v>1.175989510350411</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.914616746568885</v>
+        <v>-0.8119391871241006</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.946566670707436</v>
+        <v>3.480882135807305</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.558407519780456</v>
+        <v>4.620166795063193</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.09943923783053</v>
+        <v>2.078680899229182</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.521096916929469</v>
+        <v>2.767194819628462</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.128326137766299</v>
+        <v>2.142435543347329</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.03181536319510191</v>
+        <v>-0.01816479666522584</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.275634571692726</v>
+        <v>2.178859446164795</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>-0.3019189644858283</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.04456689642303806</v>
+        <v>0.0445668964230383</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.530280099365193</v>
+        <v>-0.5141491943071749</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.6639344059498273</v>
+        <v>-0.665909129108185</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.344101158605954</v>
+        <v>-0.3358463308918709</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1870718996356621</v>
+        <v>-0.1667457885216837</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4944185335619893</v>
+        <v>-0.4847834976684038</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3517505413780565</v>
+        <v>-0.3062738147301827</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2865210268408529</v>
+        <v>-0.2776718014338269</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.511534275756606</v>
+        <v>-0.5299885264817655</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.2402389195900453</v>
+        <v>-0.269271210126523</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1924229838417566</v>
+        <v>0.1987191080922006</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.1056614144618449</v>
+        <v>-0.09088871053731885</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.4849713990147158</v>
+        <v>0.5632930907577638</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.561330672322015</v>
+        <v>1.689433960065355</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.7883270346753124</v>
+        <v>0.8180766748926238</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.048234101785846</v>
+        <v>1.048504441146926</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4464062922019698</v>
+        <v>0.4492538490712101</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.01322145857606134</v>
+        <v>0.03228402903369113</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.4798419561844858</v>
+        <v>0.4394494488587257</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-1.943680094265495</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.2980300914650076</v>
+        <v>0.2980300914650083</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>4.917891818424337</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-4.78713782863593</v>
+        <v>-4.799239001214334</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.512705235975054</v>
+        <v>-4.833196669831239</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.572760345723571</v>
+        <v>-2.948626359249883</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1.330013697439696</v>
+        <v>1.185682105424228</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.385010170097565</v>
+        <v>-1.232469820874716</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.8392376275255895</v>
+        <v>-1.01356659865187</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.6783198317531774</v>
+        <v>-0.6021628818528582</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-2.190907695073263</v>
+        <v>-2.090249638545079</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.7653850530136153</v>
+        <v>-0.7278646010671668</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.9260941143342761</v>
+        <v>0.8447223994820455</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.6959940998777291</v>
+        <v>0.5549085530238109</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.888308159364341</v>
+        <v>2.840911091596805</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>8.358319134378171</v>
+        <v>8.354681225057083</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>4.813284693596457</v>
+        <v>4.800356903125008</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>4.371555080981338</v>
+        <v>4.161176649516431</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>3.652585118774823</v>
+        <v>3.950227571092941</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.858866293818012</v>
+        <v>1.801643539573138</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>2.843076130326074</v>
+        <v>2.919667693357062</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.3990456140576092</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.06118681834895335</v>
+        <v>0.0611868183489535</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>1.115905323324799</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.7124098187076739</v>
+        <v>-0.7256988250230132</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.7146006291225404</v>
+        <v>-0.7359202247194598</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.4007447495186028</v>
+        <v>-0.4220482568575171</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.1639118953186576</v>
+        <v>0.1405917291124158</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.2586051768932636</v>
+        <v>-0.2262557513986867</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.1481013621131123</v>
+        <v>-0.1738633697180015</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.1188294083892454</v>
+        <v>-0.1221401308319227</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.3828514301548026</v>
+        <v>-0.3771134189828562</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.134193226152032</v>
+        <v>-0.1265270369335971</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.3319127138267631</v>
+        <v>0.2842677513836411</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.2997156582776229</v>
+        <v>0.2091045930493789</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.8926075328074143</v>
+        <v>0.8537063234819529</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>2.606125647021907</v>
+        <v>2.599444374373242</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.505965347823759</v>
+        <v>1.591328996475135</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.488159321270685</v>
+        <v>1.361477504629578</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.9847201967730762</v>
+        <v>1.12099571582602</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.5411020588642815</v>
+        <v>0.4808397805065675</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.7941757956716375</v>
+        <v>0.8183489864983957</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>0.2805053184604112</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>0.7688804763027732</v>
+        <v>0.7688804763027718</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>0.6933895252447433</v>
@@ -1734,7 +1734,7 @@
         <v>-0.07879659079714912</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>0.6931609285969698</v>
+        <v>0.6931609285969711</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-1.432129738097475</v>
+        <v>-1.14962352820516</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-3.303237246200764</v>
+        <v>-3.26818117822588</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-1.816636096636773</v>
+        <v>-1.897264577592186</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-4.334233593953068</v>
+        <v>-4.028780068692384</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-3.556585428435376</v>
+        <v>-3.643868680305111</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-2.727561498276664</v>
+        <v>-2.354125679670975</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-2.014772956221275</v>
+        <v>-2.059280064138798</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-2.647015500234278</v>
+        <v>-2.480514283623895</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-1.536895468146785</v>
+        <v>-1.635687771886166</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>5.482712421726641</v>
+        <v>5.608056771952551</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>2.413392257624085</v>
+        <v>2.380638631223471</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3.376807293504881</v>
+        <v>3.503960057624738</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>3.677457667351532</v>
+        <v>3.373195786576522</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>4.112922247914355</v>
+        <v>4.577736958705204</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>4.122412222884153</v>
+        <v>3.878315340735154</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>3.199295814530303</v>
+        <v>3.230013268337212</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>2.257032297937136</v>
+        <v>2.540105005191891</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>2.801308132926466</v>
+        <v>2.749774549040193</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>0.03752061736569842</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1028460719021406</v>
+        <v>0.1028460719021404</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.1210356767477589</v>
@@ -1839,7 +1839,7 @@
         <v>-0.01375446029298303</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.120995773707753</v>
+        <v>0.1209957737077532</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.3390264825231347</v>
+        <v>-0.3201357456925304</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.6477155767112652</v>
+        <v>-0.6374081636699814</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.3613569225219785</v>
+        <v>-0.3415345522060764</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.4661734149749571</v>
+        <v>-0.426687392302279</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.3768847560726687</v>
+        <v>-0.4024847995899571</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.2713123254347039</v>
+        <v>-0.2616873298597499</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.288953350402208</v>
+        <v>-0.2910000030456301</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.370224236463838</v>
+        <v>-0.371699976847722</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.213236866673036</v>
+        <v>-0.240971769335561</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>2.23018600597484</v>
+        <v>2.494552824036719</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.9892511530710405</v>
+        <v>1.163542938415802</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1.779052014759776</v>
+        <v>1.79980327236341</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.6788929000722287</v>
+        <v>0.6437627754378407</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.7578375551838402</v>
+        <v>0.8090403726813727</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.7564406132366841</v>
+        <v>0.7017700996661743</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.710953514654843</v>
+        <v>0.7723629266025023</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.5158909258150484</v>
+        <v>0.5614901876085784</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.6560329066974065</v>
+        <v>0.6229333927150997</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>1.705266861437311</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>3.215203301127236</v>
+        <v>3.215203301127235</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>3.698765787333824</v>
@@ -1939,7 +1939,7 @@
         <v>0.09208555270251578</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>1.960960941090334</v>
+        <v>1.960960941090333</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>4.025945362842601</v>
@@ -1948,7 +1948,7 @@
         <v>0.6921590415591692</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>2.376320761188862</v>
+        <v>2.37632076118886</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>0.0441965131107956</v>
+        <v>-0.146537625850243</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-2.389563620567996</v>
+        <v>-1.988945219506317</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-0.7395498679696532</v>
+        <v>-0.2902558962973213</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-1.204375601537083</v>
+        <v>-1.382839817503757</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-4.578999425907651</v>
+        <v>-4.552707710750373</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-2.507426152591701</v>
+        <v>-2.691836573442086</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>0.6819392611630972</v>
+        <v>0.4300565759184575</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-2.644809601778754</v>
+        <v>-2.583017942846948</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-0.8634568496550877</v>
+        <v>-0.6047492843566717</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>8.913775434348866</v>
+        <v>8.853617646588104</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>5.362029471118533</v>
+        <v>5.526131247962427</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>6.627896862980756</v>
+        <v>7.074338247418583</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>8.848671308712461</v>
+        <v>8.654896932837158</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>4.882801749476032</v>
+        <v>4.982478324823069</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>5.753407939231421</v>
+        <v>5.76138310891516</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>7.764580305554163</v>
+        <v>7.642019140380246</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>4.028609085844515</v>
+        <v>4.221192291801594</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>5.218080586012763</v>
+        <v>5.329903617484511</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>0.4056813385796769</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.7648937585684995</v>
+        <v>0.7648937585684992</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.3614527200518957</v>
@@ -2044,7 +2044,7 @@
         <v>0.008998832425612705</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1916300481906278</v>
+        <v>0.1916300481906277</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.5092356961742093</v>
@@ -2053,7 +2053,7 @@
         <v>0.08755014279249602</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.300577193204335</v>
+        <v>0.3005771932043348</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.07356782506398006</v>
+        <v>-0.08120208727291557</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.3991138392398367</v>
+        <v>-0.3536504945428503</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.1314483999946278</v>
+        <v>-0.08726879864814084</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.1015266334771609</v>
+        <v>-0.115289542931409</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.3611321627570266</v>
+        <v>-0.3757847821163223</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.1921374618440148</v>
+        <v>-0.2025486787040871</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.07165172346455459</v>
+        <v>0.04431367394841353</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.2843319305925162</v>
+        <v>-0.2611500259712343</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.1036645099539552</v>
+        <v>-0.05833915784126126</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>3.688002620564608</v>
+        <v>3.297105949931032</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>2.345826147690925</v>
+        <v>2.768289485519117</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>3.130548388975869</v>
+        <v>3.423096612851622</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1.170013812445735</v>
+        <v>1.127891324198579</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.642002791233046</v>
+        <v>0.6558263073266145</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.7608825833588441</v>
+        <v>0.7880541570124484</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>1.264972915530904</v>
+        <v>1.310269622730287</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.651765410955083</v>
+        <v>0.6706775470861382</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.8185596606098468</v>
+        <v>0.940337760985397</v>
       </c>
     </row>
     <row r="46">
@@ -2144,7 +2144,7 @@
         <v>-1.536720328601178</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>-1.161704455143672</v>
+        <v>-1.161704455143671</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>2.045499331046476</v>
@@ -2153,7 +2153,7 @@
         <v>0.2110543051594284</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>1.025606280732737</v>
+        <v>1.025606280732738</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>1.520841919521344</v>
@@ -2162,7 +2162,7 @@
         <v>-0.6508478693768811</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>-0.05143282029817023</v>
+        <v>-0.05143282029817162</v>
       </c>
     </row>
     <row r="47">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-0.3698227306760911</v>
+        <v>-0.3060146072809452</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-2.762453625590953</v>
+        <v>-2.750856973222975</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-2.448193380970904</v>
+        <v>-2.47650110263861</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>0.9067505875813546</v>
+        <v>0.910144190159095</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-0.9140746163237965</v>
+        <v>-0.8869481266571416</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>0.003948199813368013</v>
+        <v>-0.01932737097672992</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>0.7263625480531394</v>
+        <v>0.6116256003948229</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-1.452930314741698</v>
+        <v>-1.488518766843942</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-0.8943166356123131</v>
+        <v>-0.8713981701680923</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>2.433078320979793</v>
+        <v>2.28886754470397</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-0.3291758900479451</v>
+        <v>-0.36059276139172</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>0.1462816326227103</v>
+        <v>0.1647742674671765</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>3.265399120190098</v>
+        <v>3.210899703866366</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>1.307878476560527</v>
+        <v>1.405277738053441</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>2.100288110229168</v>
+        <v>2.086962774589077</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>2.477733057242218</v>
+        <v>2.455926558752768</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>0.2181704091557044</v>
+        <v>0.1922362704515032</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>0.8067437980628348</v>
+        <v>0.77448228048832</v>
       </c>
     </row>
     <row r="49">
@@ -2249,7 +2249,7 @@
         <v>-0.2071589272419076</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>-0.1566045845952788</v>
+        <v>-0.1566045845952787</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>0.3941000144140157</v>
@@ -2258,7 +2258,7 @@
         <v>0.04066317863957342</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1976003824030059</v>
+        <v>0.1976003824030062</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.2419022627564087</v>
@@ -2267,7 +2267,7 @@
         <v>-0.1035226411710211</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>-0.008180807913281952</v>
+        <v>-0.008180807913282172</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.04359367238145958</v>
+        <v>-0.03871192750864966</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.3378779483048957</v>
+        <v>-0.3419092757521676</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.3028471386607134</v>
+        <v>-0.3029765470824664</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.1513190900727625</v>
+        <v>0.1541780052959179</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.1629660343857974</v>
+        <v>-0.1542498036187833</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.006510805905610513</v>
+        <v>-0.002010973127937562</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1033462787980132</v>
+        <v>0.09462382815820382</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.2161079969521281</v>
+        <v>-0.2214652650333837</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.1327985576265871</v>
+        <v>-0.1310462597567844</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.3672104583249788</v>
+        <v>0.3403780996894968</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.04370450515936641</v>
+        <v>-0.04773096634819851</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.02429011566334081</v>
+        <v>0.02822079972939374</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.7013451654478698</v>
+        <v>0.6850285017382679</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.2905886072128724</v>
+        <v>0.30093688469953</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.4438301311362192</v>
+        <v>0.4551968594113229</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.4295943386808087</v>
+        <v>0.4146062051078038</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.04098704947174107</v>
+        <v>0.03446849010814568</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.1380816793172147</v>
+        <v>0.132005575461982</v>
       </c>
     </row>
     <row r="52">
